--- a/medicine/Enfance/Pirouette_cacahuète/Pirouette_cacahuète.xlsx
+++ b/medicine/Enfance/Pirouette_cacahuète/Pirouette_cacahuète.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pirouette_cacahu%C3%A8te</t>
+          <t>Pirouette_cacahuète</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pirouette cacahuète, parfois ponctuée Pirouette, cacahuète, ou connue sous le nom d’Il était un petit homme[1], est une comptine populaire de langue française.
+Pirouette cacahuète, parfois ponctuée Pirouette, cacahuète, ou connue sous le nom d’Il était un petit homme, est une comptine populaire de langue française.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pirouette_cacahu%C3%A8te</t>
+          <t>Pirouette_cacahuète</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gabrielle Grandière, née Gabrielle Emilienne Augustine Pauline Morel[2] le 10 juillet 1920 à Mellé et morte le 25 février 2020 à Ruaudin[3],[4],[5] dans la Sarthe où elle vit, dit être l'auteure de la comptine. Elle affirme l'avoir créée en 1953[6], alors qu’elle était institutrice à Alençon. Elle précise que sa version ne comportait pas les deux couplets « Le beau fil il s'est cassé… » et « Un avion à réaction… »[4], et que le dernier vers était : « Je vais vous la recommencer », et non pas « Messieurs, mesdames, applaudissez »[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabrielle Grandière, née Gabrielle Emilienne Augustine Pauline Morel le 10 juillet 1920 à Mellé et morte le 25 février 2020 à Ruaudin dans la Sarthe où elle vit, dit être l'auteure de la comptine. Elle affirme l'avoir créée en 1953, alors qu’elle était institutrice à Alençon. Elle précise que sa version ne comportait pas les deux couplets « Le beau fil il s'est cassé… » et « Un avion à réaction… », et que le dernier vers était : « Je vais vous la recommencer », et non pas « Messieurs, mesdames, applaudissez »,.
 En 1979, elle est enregistrée par Jean Humenry, Claude Anthonioz-Rossiaux, Philippe Lecante et un enfant, sur l'album 12 chansons et 12 comptines 1, sorti chez Auvidis.
-En 1982, Dorothée enregistre la version longue sur l'album Le Jardin des chansons (album 3)[8]. En 1997, Sylvie Vartan l'enregistre à son tour sur l'album Sylvie Vartan chante pour les enfants (volume 1)[9]. Gabrielle Grandière n'est pas créditée. En avril 2002, elle veut déposer son œuvre à la Sacem, mais ne peut prouver qu'elle en est bien l'auteure[10].
+En 1982, Dorothée enregistre la version longue sur l'album Le Jardin des chansons (album 3). En 1997, Sylvie Vartan l'enregistre à son tour sur l'album Sylvie Vartan chante pour les enfants (volume 1). Gabrielle Grandière n'est pas créditée. En avril 2002, elle veut déposer son œuvre à la Sacem, mais ne peut prouver qu'elle en est bien l'auteure.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pirouette_cacahu%C3%A8te</t>
+          <t>Pirouette_cacahuète</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pirouette cacahuète est organisée originellement en cinq strophes de même structure (A - Pirouette cacahuète - A - B - B). Une variante, plus récente, ajoute trois strophes et conclut la fin par une invitation à applaudir.
 La chanteuse Clémence Savelli fait une variation de la comptine avec sa chanson Léon en 2011.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pirouette_cacahu%C3%A8te</t>
+          <t>Pirouette_cacahuète</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Version revendiquée par Gabrielle Grandière
+          <t>Version revendiquée par Gabrielle Grandière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Il était un petit homme
 Pirouette cacahuète
 Il était un petit homme 
@@ -604,8 +626,44 @@
 Pirouette cacahuète 
 Mon histoire est terminée
 Je vais vous la recommencer
-Je vais vous la recommencer[7]
-Version alternative reprise par Dorothée et ses amis
+Je vais vous la recommencer
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pirouette_cacahuète</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pirouette_cacahu%C3%A8te</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Paroles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Version alternative reprise par Dorothée et ses amis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Il était un petit homme
 Pirouette cacahuète
 Il était un petit homme 
@@ -645,8 +703,44 @@
 Pirouette cacahuète 
 Mon histoire est terminée
 Messieurs, Mesdames, applaudissez !
-Messieurs, Mesdames, applaudissez[11],[12] !
-Autre version chantée en classe de maternelle
+Messieurs, Mesdames, applaudissez, !
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pirouette_cacahuète</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pirouette_cacahu%C3%A8te</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Paroles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autre version chantée en classe de maternelle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Il était un petit homme
 Pirouette, cacahouète,
 Il était un petit homme 
